--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-368911.4537759831</v>
+        <v>-371259.6026591737</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5860219.813005073</v>
+        <v>5860219.813005079</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>57.18787261665877</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>126.4515542885777</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>33.89392690056376</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>74.53436060286496</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>313.094442018297</v>
+        <v>130.6275294879733</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.947926410263</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>24.96762110967057</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>78.29200324836506</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>237.1298127151653</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.10844059186289</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>99.67868129518061</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I11" t="n">
-        <v>59.02800318540989</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.5026916989982</v>
+        <v>119.5026916989981</v>
       </c>
       <c r="T11" t="n">
         <v>205.8994777944583</v>
@@ -1464,10 +1464,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I12" t="n">
-        <v>17.03013564767504</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>126.8208983211969</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>199.6600545369596</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238306</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890383</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.3743830274884</v>
+        <v>411.3743830274893</v>
       </c>
       <c r="H14" t="n">
         <v>299.2435417191563</v>
       </c>
       <c r="I14" t="n">
-        <v>59.02800318540989</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.5026916989982</v>
+        <v>119.5026916989981</v>
       </c>
       <c r="T14" t="n">
         <v>205.8994777944583</v>
@@ -1701,10 +1701,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I15" t="n">
-        <v>17.03013564767504</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.3815784597984</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5602830177929</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>186.0204061289151</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238258</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I18" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>151.0136729297963</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>46.87627987753815</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S19" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4165116571834</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I20" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I21" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>13.3234408428867</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06186232216687</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.4165116571834</v>
+        <v>168.4196911719762</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I23" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I24" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.0038866829577</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5602830177929</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S25" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T25" t="n">
         <v>220.4165116571834</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>63.11264750820344</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4746605491554</v>
+        <v>206.324165101322</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>198.074800886293</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.0276763784375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>18.26879610203926</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>57.68750238080759</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3433,7 +3433,7 @@
         <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433842</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3484,7 +3484,7 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3676,7 +3676,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572861</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124554</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1779.584617183058</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1779.584617183058</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1421.318918576308</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2139.480975254749</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2139.480975254749</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>88.1792716189137</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>88.1792716189137</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U4" t="n">
-        <v>652.8417512742476</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V4" t="n">
-        <v>652.8417512742476</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W4" t="n">
-        <v>652.8417512742476</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X4" t="n">
-        <v>424.8522003762303</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.412473230863</v>
+        <v>962.1194880117293</v>
       </c>
       <c r="C5" t="n">
-        <v>1859.412473230863</v>
+        <v>962.1194880117293</v>
       </c>
       <c r="D5" t="n">
-        <v>1501.146774624113</v>
+        <v>603.8537894049789</v>
       </c>
       <c r="E5" t="n">
-        <v>1115.358522025869</v>
+        <v>603.8537894049789</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1859.412473230863</v>
+        <v>1348.719328075851</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>566.5654221758658</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>261.1482364572794</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X8" t="n">
-        <v>2386.860082298881</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2397.702401960704</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D11" t="n">
         <v>1670.474186413542</v>
@@ -5027,58 +5027,58 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F11" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256906</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1703491999442</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H11" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I11" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5301382692638</v>
+        <v>247.1244892489112</v>
       </c>
       <c r="K11" t="n">
-        <v>1012.249552116584</v>
+        <v>844.843903096232</v>
       </c>
       <c r="L11" t="n">
-        <v>1487.930303043719</v>
+        <v>1638.644317482091</v>
       </c>
       <c r="M11" t="n">
-        <v>2387.792758486311</v>
+        <v>2230.070399746004</v>
       </c>
       <c r="N11" t="n">
-        <v>2854.61047652152</v>
+        <v>3129.861572949078</v>
       </c>
       <c r="O11" t="n">
-        <v>3659.070128472832</v>
+        <v>3934.32122490039</v>
       </c>
       <c r="P11" t="n">
-        <v>4307.983446673908</v>
+        <v>4583.234543101466</v>
       </c>
       <c r="Q11" t="n">
-        <v>4718.068564222579</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R11" t="n">
         <v>4813.994990069626</v>
       </c>
       <c r="S11" t="n">
-        <v>4693.285200474677</v>
+        <v>4693.285200474678</v>
       </c>
       <c r="T11" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X11" t="n">
         <v>3174.441574000638</v>
@@ -5112,31 +5112,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I12" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304509</v>
       </c>
       <c r="K12" t="n">
-        <v>366.8504787502424</v>
+        <v>628.6710633926957</v>
       </c>
       <c r="L12" t="n">
-        <v>681.48780960007</v>
+        <v>943.3083942425237</v>
       </c>
       <c r="M12" t="n">
-        <v>1444.200399947359</v>
+        <v>1329.832187032396</v>
       </c>
       <c r="N12" t="n">
-        <v>1855.362972310685</v>
+        <v>1740.994759395723</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.276603695803</v>
+        <v>2094.908390780841</v>
       </c>
       <c r="P12" t="n">
-        <v>2473.990428215981</v>
+        <v>2359.62221530102</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.025413179288</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>838.2376807180972</v>
+        <v>878.1712936713906</v>
       </c>
       <c r="C13" t="n">
-        <v>669.3014977901903</v>
+        <v>709.2351107434837</v>
       </c>
       <c r="D13" t="n">
-        <v>519.1848583778545</v>
+        <v>559.1184713311479</v>
       </c>
       <c r="E13" t="n">
-        <v>371.2717647954614</v>
+        <v>559.1184713311479</v>
       </c>
       <c r="F13" t="n">
-        <v>224.3818172975511</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="G13" t="n">
-        <v>96.27989980139252</v>
+        <v>244.320589718355</v>
       </c>
       <c r="H13" t="n">
         <v>96.27989980139252</v>
@@ -5197,52 +5197,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J13" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070657</v>
       </c>
       <c r="M13" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290203</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q13" t="n">
-        <v>1757.782329600038</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.782329600038</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S13" t="n">
-        <v>1757.782329600038</v>
+        <v>1562.522155539903</v>
       </c>
       <c r="T13" t="n">
-        <v>1757.782329600038</v>
+        <v>1360.845332775297</v>
       </c>
       <c r="U13" t="n">
-        <v>1468.668275589886</v>
+        <v>1360.845332775297</v>
       </c>
       <c r="V13" t="n">
-        <v>1468.668275589886</v>
+        <v>1106.160844569408</v>
       </c>
       <c r="W13" t="n">
-        <v>1468.668275589886</v>
+        <v>1106.160844569408</v>
       </c>
       <c r="X13" t="n">
-        <v>1240.678724691867</v>
+        <v>878.1712936713906</v>
       </c>
       <c r="Y13" t="n">
-        <v>1019.886145548337</v>
+        <v>878.1712936713906</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D14" t="n">
-        <v>1670.474186413542</v>
+        <v>1670.474186413543</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815299</v>
       </c>
       <c r="F14" t="n">
-        <v>873.7000290256901</v>
+        <v>873.700029025691</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1703491999442</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H14" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I14" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489112</v>
       </c>
       <c r="K14" t="n">
-        <v>844.8439030962311</v>
+        <v>844.843903096232</v>
       </c>
       <c r="L14" t="n">
-        <v>1638.644317482089</v>
+        <v>1638.644317482091</v>
       </c>
       <c r="M14" t="n">
-        <v>2538.506772924682</v>
+        <v>2538.506772924684</v>
       </c>
       <c r="N14" t="n">
-        <v>3438.297946127755</v>
+        <v>3438.297946127758</v>
       </c>
       <c r="O14" t="n">
-        <v>4242.757598079067</v>
+        <v>4242.75759807907</v>
       </c>
       <c r="P14" t="n">
         <v>4583.234543101466</v>
@@ -5306,22 +5306,22 @@
         <v>4693.285200474678</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I15" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304509</v>
       </c>
       <c r="K15" t="n">
-        <v>535.0627614491691</v>
+        <v>535.0627614491661</v>
       </c>
       <c r="L15" t="n">
-        <v>849.7000922989967</v>
+        <v>849.7000922989942</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.223885088869</v>
+        <v>1236.223885088867</v>
       </c>
       <c r="N15" t="n">
-        <v>1647.386457452195</v>
+        <v>1647.386457452193</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.300088837312</v>
+        <v>2001.300088837311</v>
       </c>
       <c r="P15" t="n">
-        <v>2266.013913357491</v>
+        <v>2266.01391335749</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.025413179288</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1026.084387253784</v>
+        <v>837.9345646912921</v>
       </c>
       <c r="C16" t="n">
-        <v>857.1482043258767</v>
+        <v>668.9983817633853</v>
       </c>
       <c r="D16" t="n">
-        <v>707.0315649135409</v>
+        <v>518.8817423510495</v>
       </c>
       <c r="E16" t="n">
-        <v>559.1184713311478</v>
+        <v>370.9686487686564</v>
       </c>
       <c r="F16" t="n">
-        <v>412.2285238332375</v>
+        <v>244.320589718355</v>
       </c>
       <c r="G16" t="n">
         <v>244.320589718355</v>
@@ -5434,52 +5434,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J16" t="n">
-        <v>127.1906975445495</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8234703720051</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L16" t="n">
-        <v>594.497664507065</v>
+        <v>594.4976645070657</v>
       </c>
       <c r="M16" t="n">
-        <v>907.1445306290194</v>
+        <v>907.1445306290204</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q16" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R16" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S16" t="n">
-        <v>1569.882929469821</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="T16" t="n">
-        <v>1569.882929469821</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="U16" t="n">
-        <v>1280.768875459668</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="V16" t="n">
-        <v>1026.084387253784</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="W16" t="n">
-        <v>1026.084387253784</v>
+        <v>1468.365159563079</v>
       </c>
       <c r="X16" t="n">
-        <v>1026.084387253784</v>
+        <v>1240.375608665062</v>
       </c>
       <c r="Y16" t="n">
-        <v>1026.084387253784</v>
+        <v>1019.583029521532</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F17" t="n">
-        <v>873.70002902569</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1703491999442</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9041454432206</v>
+        <v>155.9041454432205</v>
       </c>
       <c r="I17" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1244892489109</v>
+        <v>247.1244892489112</v>
       </c>
       <c r="K17" t="n">
-        <v>844.8439030962312</v>
+        <v>536.4075299175513</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.64431748209</v>
+        <v>1330.20794430341</v>
       </c>
       <c r="M17" t="n">
-        <v>2538.506772924682</v>
+        <v>2230.070399746004</v>
       </c>
       <c r="N17" t="n">
-        <v>3438.297946127755</v>
+        <v>3129.861572949078</v>
       </c>
       <c r="O17" t="n">
         <v>3934.32122490039</v>
@@ -5586,31 +5586,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H18" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I18" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304509</v>
       </c>
       <c r="K18" t="n">
-        <v>535.0627614491686</v>
+        <v>535.0627614491661</v>
       </c>
       <c r="L18" t="n">
-        <v>849.7000922989963</v>
+        <v>849.7000922989942</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.223885088868</v>
+        <v>1236.223885088867</v>
       </c>
       <c r="N18" t="n">
-        <v>1647.386457452194</v>
+        <v>1647.386457452193</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.300088837312</v>
+        <v>2001.300088837311</v>
       </c>
       <c r="P18" t="n">
-        <v>2266.013913357491</v>
+        <v>2266.01391335749</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.025413179288</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>312.5658603833783</v>
+        <v>543.6220044471469</v>
       </c>
       <c r="C19" t="n">
-        <v>143.6296774554714</v>
+        <v>391.082940881696</v>
       </c>
       <c r="D19" t="n">
-        <v>143.6296774554714</v>
+        <v>391.082940881696</v>
       </c>
       <c r="E19" t="n">
-        <v>143.6296774554714</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="F19" t="n">
-        <v>143.6296774554714</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G19" t="n">
         <v>96.27989980139252</v>
@@ -5671,19 +5671,19 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J19" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8234703720053</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L19" t="n">
-        <v>594.4976645070652</v>
+        <v>594.4976645070657</v>
       </c>
       <c r="M19" t="n">
-        <v>907.1445306290198</v>
+        <v>907.1445306290204</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O19" t="n">
         <v>1488.708863521204</v>
@@ -5695,28 +5695,28 @@
         <v>1757.782329600039</v>
       </c>
       <c r="R19" t="n">
-        <v>1757.782329600039</v>
+        <v>1658.729943416032</v>
       </c>
       <c r="S19" t="n">
-        <v>1562.522155539902</v>
+        <v>1463.469769355895</v>
       </c>
       <c r="T19" t="n">
-        <v>1339.87921447204</v>
+        <v>1463.469769355895</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.765160461886</v>
+        <v>1463.469769355895</v>
       </c>
       <c r="V19" t="n">
-        <v>1050.765160461886</v>
+        <v>1463.469769355895</v>
       </c>
       <c r="W19" t="n">
-        <v>761.3479904249258</v>
+        <v>1174.052599318934</v>
       </c>
       <c r="X19" t="n">
-        <v>533.3584395269085</v>
+        <v>946.0630484209167</v>
       </c>
       <c r="Y19" t="n">
-        <v>312.5658603833783</v>
+        <v>725.2704692773866</v>
       </c>
     </row>
     <row r="20">
@@ -5735,61 +5735,61 @@
         <v>1670.474186413542</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815297</v>
       </c>
       <c r="F20" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256899</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1703491999442</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H20" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432205</v>
       </c>
       <c r="I20" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1244892489109</v>
+        <v>247.1244892489112</v>
       </c>
       <c r="K20" t="n">
-        <v>536.4075299175539</v>
+        <v>536.4075299175504</v>
       </c>
       <c r="L20" t="n">
-        <v>1330.207944303412</v>
+        <v>1330.207944303409</v>
       </c>
       <c r="M20" t="n">
-        <v>2230.070399746005</v>
+        <v>2230.070399746003</v>
       </c>
       <c r="N20" t="n">
-        <v>3129.861572949078</v>
+        <v>3129.861572949077</v>
       </c>
       <c r="O20" t="n">
-        <v>3934.32122490039</v>
+        <v>3934.321224900389</v>
       </c>
       <c r="P20" t="n">
         <v>4583.234543101466</v>
       </c>
       <c r="Q20" t="n">
-        <v>4783.127819896831</v>
+        <v>4783.12781989683</v>
       </c>
       <c r="R20" t="n">
-        <v>4813.994990069626</v>
+        <v>4813.994990069625</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.305929975226</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.738874875403</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V20" t="n">
         <v>3900.675987531832</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.907332261718</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X20" t="n">
         <v>3174.441574000638</v>
@@ -5823,31 +5823,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H21" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I21" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304509</v>
       </c>
       <c r="K21" t="n">
-        <v>628.6710633926953</v>
+        <v>535.0627614491661</v>
       </c>
       <c r="L21" t="n">
-        <v>943.308394242523</v>
+        <v>849.7000922989942</v>
       </c>
       <c r="M21" t="n">
-        <v>1329.832187032395</v>
+        <v>1236.223885088867</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.994759395721</v>
+        <v>1647.386457452193</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.908390780839</v>
+        <v>2001.300088837311</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.622215301018</v>
+        <v>2266.01391335749</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.025413179288</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>259.8545602671492</v>
+        <v>413.1291763116925</v>
       </c>
       <c r="C22" t="n">
-        <v>259.8545602671492</v>
+        <v>244.1929933837856</v>
       </c>
       <c r="D22" t="n">
-        <v>109.7379208548134</v>
+        <v>244.1929933837856</v>
       </c>
       <c r="E22" t="n">
-        <v>109.7379208548134</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="F22" t="n">
-        <v>109.7379208548134</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G22" t="n">
-        <v>109.7379208548134</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="H22" t="n">
         <v>96.27989980139252</v>
@@ -5908,52 +5908,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J22" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8234703720053</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4976645070652</v>
+        <v>594.4976645070657</v>
       </c>
       <c r="M22" t="n">
-        <v>907.1445306290198</v>
+        <v>907.1445306290204</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.708863521204</v>
+        <v>1488.708863521205</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600041</v>
       </c>
       <c r="R22" t="n">
-        <v>1658.729943416032</v>
+        <v>1757.782329600041</v>
       </c>
       <c r="S22" t="n">
-        <v>1463.469769355895</v>
+        <v>1757.782329600041</v>
       </c>
       <c r="T22" t="n">
-        <v>1240.826828288033</v>
+        <v>1587.661429426327</v>
       </c>
       <c r="U22" t="n">
-        <v>951.7127742778796</v>
+        <v>1587.661429426327</v>
       </c>
       <c r="V22" t="n">
-        <v>951.7127742778796</v>
+        <v>1332.97694122044</v>
       </c>
       <c r="W22" t="n">
-        <v>662.295604240919</v>
+        <v>1043.55977118348</v>
       </c>
       <c r="X22" t="n">
-        <v>662.295604240919</v>
+        <v>815.5702202854624</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.5030250973889</v>
+        <v>594.7776411419322</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960702</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020291</v>
       </c>
       <c r="D23" t="n">
-        <v>1670.474186413542</v>
+        <v>1670.474186413541</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815297</v>
       </c>
       <c r="F23" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256892</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999433</v>
       </c>
       <c r="H23" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432205</v>
       </c>
       <c r="I23" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J23" t="n">
-        <v>247.1244892489109</v>
+        <v>247.1244892489112</v>
       </c>
       <c r="K23" t="n">
-        <v>844.8439030962312</v>
+        <v>844.843903096232</v>
       </c>
       <c r="L23" t="n">
-        <v>1638.64431748209</v>
+        <v>1638.644317482091</v>
       </c>
       <c r="M23" t="n">
-        <v>2538.506772924682</v>
+        <v>2538.506772924684</v>
       </c>
       <c r="N23" t="n">
-        <v>3438.297946127755</v>
+        <v>3438.297946127758</v>
       </c>
       <c r="O23" t="n">
-        <v>4242.757598079067</v>
+        <v>4242.75759807907</v>
       </c>
       <c r="P23" t="n">
         <v>4583.234543101466</v>
@@ -6014,25 +6014,25 @@
         <v>4813.994990069626</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975224</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.738874875401</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.67598753183</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261716</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000636</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024824</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H24" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I24" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304509</v>
       </c>
       <c r="K24" t="n">
-        <v>366.8504787502425</v>
+        <v>535.0627614491661</v>
       </c>
       <c r="L24" t="n">
-        <v>681.4878096000702</v>
+        <v>849.7000922989942</v>
       </c>
       <c r="M24" t="n">
-        <v>1068.011602389942</v>
+        <v>1236.223885088867</v>
       </c>
       <c r="N24" t="n">
-        <v>1855.362972310685</v>
+        <v>1647.386457452193</v>
       </c>
       <c r="O24" t="n">
-        <v>2209.276603695803</v>
+        <v>2001.300088837311</v>
       </c>
       <c r="P24" t="n">
-        <v>2473.990428215981</v>
+        <v>2266.01391335749</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.025413179288</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.2285238332375</v>
+        <v>666.866930109358</v>
       </c>
       <c r="C25" t="n">
-        <v>412.2285238332375</v>
+        <v>497.9307471814511</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2285238332375</v>
+        <v>347.8141077691154</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2285238332375</v>
+        <v>347.8141077691154</v>
       </c>
       <c r="F25" t="n">
-        <v>412.2285238332375</v>
+        <v>347.8141077691154</v>
       </c>
       <c r="G25" t="n">
-        <v>244.320589718355</v>
+        <v>347.8141077691154</v>
       </c>
       <c r="H25" t="n">
-        <v>96.27989980139252</v>
+        <v>199.7734178521529</v>
       </c>
       <c r="I25" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J25" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L25" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070657</v>
       </c>
       <c r="M25" t="n">
-        <v>907.1445306290194</v>
+        <v>907.1445306290204</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521205</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470093</v>
       </c>
       <c r="Q25" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R25" t="n">
-        <v>1757.782329600039</v>
+        <v>1658.729943416033</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.522155539901</v>
+        <v>1463.469769355896</v>
       </c>
       <c r="T25" t="n">
-        <v>1339.879214472039</v>
+        <v>1240.826828288034</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.879214472039</v>
+        <v>1177.076679289849</v>
       </c>
       <c r="V25" t="n">
-        <v>1085.194726266152</v>
+        <v>1177.076679289849</v>
       </c>
       <c r="W25" t="n">
-        <v>795.7775562291918</v>
+        <v>887.6595092528881</v>
       </c>
       <c r="X25" t="n">
-        <v>567.7880053311744</v>
+        <v>887.6595092528881</v>
       </c>
       <c r="Y25" t="n">
-        <v>567.7880053311744</v>
+        <v>666.866930109358</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6230,13 +6230,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6385,49 +6385,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927028</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1466.418877111964</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1177.316010237608</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1177.316010237608</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1177.316010237608</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>949.3264593395904</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>728.5338801960603</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6552,16 +6552,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.4972173763015</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6619,10 +6619,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927023</v>
@@ -6637,7 +6637,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
@@ -6649,22 +6649,22 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501055</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208122</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838516</v>
+        <v>1020.794670400485</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858343</v>
+        <v>792.8051195024677</v>
       </c>
       <c r="Y31" t="n">
-        <v>264.4972173763015</v>
+        <v>572.0125403589376</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.904311342304</v>
+        <v>300.0484256555947</v>
       </c>
       <c r="C34" t="n">
-        <v>260.904311342304</v>
+        <v>300.0484256555947</v>
       </c>
       <c r="D34" t="n">
-        <v>242.4509819463048</v>
+        <v>300.0484256555947</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>300.0484256555947</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305365</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305365</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6856,7 +6856,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6892,16 +6892,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208121</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838515</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858342</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.904311342304</v>
+        <v>481.6968904858344</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,13 +6935,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>416.1091927888629</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
         <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.866738172571</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
         <v>2055.398642844495</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F37" t="n">
         <v>364.4578361932524</v>
@@ -7096,10 +7096,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7117,13 +7117,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
         <v>1725.799256195774</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,7 +7281,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7290,13 +7290,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7363,19 +7363,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="41">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499226</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7594,7 +7594,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819757</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>96.32822115780056</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>137.9616413931551</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,10 +8708,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>379.9886844014316</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>115.5234473888498</v>
       </c>
       <c r="R12" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356329</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>10.24681607180889</v>
+        <v>10.2468160718056</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9113966655826</v>
+        <v>169.911396665579</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356329</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>12.5935204714873</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>69.24828916307155</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>169.911396665582</v>
+        <v>169.911396665579</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.18012378356337</v>
+        <v>15.18012378356329</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>12.59352047149065</v>
+        <v>12.59352047148639</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>169.911396665579</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.5234473888523</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>15.18012378356337</v>
+        <v>15.18012378356329</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>10.24681607180878</v>
+        <v>10.2468160718056</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>169.911396665579</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>379.988684401431</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>15.18012378356337</v>
+        <v>15.18012378356329</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.9990175570132</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>39.40795645253674</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.06186232216689</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S13" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4165116571834</v>
+        <v>20.75645712022379</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>20.03946956313284</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06186232216689</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S16" t="n">
-        <v>7.287166190620822</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T16" t="n">
         <v>220.4165116571834</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>16.23314816883155</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3525748961955</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5602830177929</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.06186232216687</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.2288547737337</v>
       </c>
       <c r="H22" t="n">
-        <v>133.2368421749062</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>51.99682048520714</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.82809349897961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.06186232216687</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2229134700513</v>
+        <v>223.110265961848</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>105.0742887270137</v>
+        <v>13.22478417484716</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>88.44819745029795</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.556976973657328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>130.3466769161731</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>87.73354564212366</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.771116669464391e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.293720896561331e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1149488.98751217</v>
+        <v>1149488.987512169</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1149488.987512169</v>
+        <v>1149488.98751217</v>
       </c>
     </row>
     <row r="10">
@@ -26317,16 +26317,16 @@
         <v>266838.5752058923</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
         <v>256395.362605553</v>
       </c>
       <c r="F2" t="n">
-        <v>256395.362605553</v>
+        <v>256395.3626055529</v>
       </c>
       <c r="G2" t="n">
-        <v>256395.362605553</v>
+        <v>256395.3626055529</v>
       </c>
       <c r="H2" t="n">
         <v>256395.362605553</v>
@@ -26335,25 +26335,25 @@
         <v>256395.3626055529</v>
       </c>
       <c r="J2" t="n">
+        <v>258103.1614765392</v>
+      </c>
+      <c r="K2" t="n">
         <v>258103.1614765391</v>
       </c>
-      <c r="K2" t="n">
-        <v>258103.161476539</v>
-      </c>
       <c r="L2" t="n">
-        <v>258103.1614765391</v>
+        <v>258103.1614765392</v>
       </c>
       <c r="M2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="N2" t="n">
         <v>266838.5752058922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>266838.5752058921</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639598.3910328816</v>
+        <v>639598.3910328826</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257371.5071467813</v>
+        <v>257371.5071467806</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>169461.7256516755</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26084.25031398456</v>
+        <v>26084.25031398448</v>
       </c>
       <c r="F4" t="n">
-        <v>26084.2503139846</v>
+        <v>26084.25031398448</v>
       </c>
       <c r="G4" t="n">
-        <v>26084.25031398456</v>
+        <v>26084.2503139845</v>
       </c>
       <c r="H4" t="n">
-        <v>26084.25031398456</v>
+        <v>26084.2503139845</v>
       </c>
       <c r="I4" t="n">
-        <v>26084.25031398456</v>
+        <v>26084.25031398452</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.208146944</v>
       </c>
       <c r="F5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.208146944</v>
       </c>
       <c r="G5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.208146944</v>
       </c>
       <c r="H5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.208146944</v>
       </c>
       <c r="I5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.208146944</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>100332.6710141021</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-589337.0689291898</v>
+        <v>-589337.0689291897</v>
       </c>
       <c r="C6" t="n">
         <v>630.8102853548189</v>
       </c>
       <c r="D6" t="n">
-        <v>630.810285354848</v>
+        <v>630.8102853547607</v>
       </c>
       <c r="E6" t="n">
-        <v>-503762.4868882571</v>
+        <v>-503842.8192928761</v>
       </c>
       <c r="F6" t="n">
-        <v>135835.9041446244</v>
+        <v>135755.5717400065</v>
       </c>
       <c r="G6" t="n">
-        <v>135835.9041446245</v>
+        <v>135755.5717400064</v>
       </c>
       <c r="H6" t="n">
-        <v>135835.9041446245</v>
+        <v>135755.5717400065</v>
       </c>
       <c r="I6" t="n">
-        <v>135835.9041446244</v>
+        <v>135755.5717400064</v>
       </c>
       <c r="J6" t="n">
-        <v>-113800.3562431457</v>
+        <v>-113867.5517333707</v>
       </c>
       <c r="K6" t="n">
-        <v>143571.1509036354</v>
+        <v>143503.9554134097</v>
       </c>
       <c r="L6" t="n">
-        <v>143571.1509036355</v>
+        <v>143503.9554134098</v>
       </c>
       <c r="M6" t="n">
-        <v>-36561.47475729436</v>
+        <v>-36561.47475729451</v>
       </c>
       <c r="N6" t="n">
-        <v>132900.2508943809</v>
+        <v>132900.2508943811</v>
       </c>
       <c r="O6" t="n">
         <v>132900.2508943811</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1781788020946</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="F3" t="n">
-        <v>977.1781788020946</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="G3" t="n">
-        <v>977.1781788020949</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1781788020949</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1781788020949</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1203.498747517406</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.4345145850078</v>
+        <v>599.4345145850091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.5985217912034</v>
+        <v>112.5985217912026</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2114747628507</v>
+        <v>529.2114747628509</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3014558420795</v>
+        <v>665.3014558420793</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628507</v>
+        <v>529.2114747628509</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628507</v>
+        <v>529.2114747628509</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>324.742497455603</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>201.3007041815573</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>112.5400357460054</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>211.7475136391128</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>93.78160372341443</v>
+        <v>276.2485162537381</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.88405377167427</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>121.4663415368986</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>291.439097430104</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>149.1081259408882</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.50703242634947</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>125.3564241629037</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.243085717168469e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I11" t="n">
-        <v>151.447886384996</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4141766958966</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M11" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9461121170041</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O11" t="n">
-        <v>661.883537180468</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.218090677848</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51737788724718</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3142683590117286</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H12" t="n">
-        <v>20.29949386530389</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I12" t="n">
-        <v>72.36649720374004</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J12" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L12" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N12" t="n">
-        <v>546.6574417432586</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3621089498641</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R12" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S12" t="n">
-        <v>39.0410338417629</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471950436972874</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762124584725088</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K13" t="n">
-        <v>204.726838116242</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L13" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O13" t="n">
-        <v>249.068300393688</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R13" t="n">
-        <v>79.2315290550026</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S13" t="n">
-        <v>30.7090257174363</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611588643955039</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I14" t="n">
-        <v>151.447886384996</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4141766958966</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9461121170041</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O14" t="n">
-        <v>661.883537180468</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.218090677848</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51737788724718</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3142683590117286</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H15" t="n">
-        <v>20.29949386530389</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I15" t="n">
-        <v>72.36649720374004</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J15" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L15" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N15" t="n">
-        <v>546.6574417432586</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3621089498641</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R15" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S15" t="n">
-        <v>39.0410338417629</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471950436972874</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762124584725088</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K16" t="n">
-        <v>204.726838116242</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L16" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O16" t="n">
-        <v>249.068300393688</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R16" t="n">
-        <v>79.2315290550026</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7090257174363</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611588643955039</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23126039661085</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I17" t="n">
-        <v>151.4478863849961</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4141766958967</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7014221579778</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L17" t="n">
-        <v>619.9238008092929</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M17" t="n">
-        <v>689.7846749289782</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O17" t="n">
-        <v>661.8835371804682</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9022857666924</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7644975846316</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51737788724721</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H18" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I18" t="n">
-        <v>72.36649720374005</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J18" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L18" t="n">
-        <v>456.3698654867709</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M18" t="n">
-        <v>532.5621074471417</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6574417432587</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0847609950683</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P18" t="n">
-        <v>401.3621089498643</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R18" t="n">
-        <v>130.4993801804006</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04103384176292</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382799309625607</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99189205700542</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L19" t="n">
-        <v>261.979867805401</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M19" t="n">
-        <v>276.221038312861</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6531194061586</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O19" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R19" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S19" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T19" t="n">
-        <v>7.529077771098105</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611588643955042</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23126039661085</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I20" t="n">
-        <v>151.4478863849961</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4141766958967</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7014221579778</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L20" t="n">
-        <v>619.9238008092929</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7846749289782</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O20" t="n">
-        <v>661.8835371804682</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9022857666924</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7644975846316</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51737788724721</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H21" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I21" t="n">
-        <v>72.36649720374005</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L21" t="n">
-        <v>456.3698654867709</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M21" t="n">
-        <v>532.5621074471417</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N21" t="n">
-        <v>546.6574417432587</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0847609950683</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P21" t="n">
-        <v>401.3621089498643</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R21" t="n">
-        <v>130.4993801804006</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04103384176292</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382799309625607</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99189205700542</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L22" t="n">
-        <v>261.979867805401</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M22" t="n">
-        <v>276.221038312861</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6531194061586</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O22" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R22" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S22" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T22" t="n">
-        <v>7.529077771098105</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611588643955042</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23126039661085</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I23" t="n">
-        <v>151.4478863849961</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4141766958967</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7014221579778</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L23" t="n">
-        <v>619.9238008092929</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M23" t="n">
-        <v>689.7846749289782</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O23" t="n">
-        <v>661.8835371804682</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9022857666924</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7644975846316</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51737788724721</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H24" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I24" t="n">
-        <v>72.36649720374005</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J24" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L24" t="n">
-        <v>456.3698654867709</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M24" t="n">
-        <v>532.5621074471417</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6574417432587</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0847609950683</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P24" t="n">
-        <v>401.3621089498643</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R24" t="n">
-        <v>130.4993801804006</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04103384176292</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382799309625607</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99189205700542</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L25" t="n">
-        <v>261.979867805401</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M25" t="n">
-        <v>276.221038312861</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6531194061586</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O25" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R25" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S25" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T25" t="n">
-        <v>7.529077771098105</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611588643955042</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.4648873412841</v>
+        <v>152.3682721692107</v>
       </c>
       <c r="K11" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841624</v>
       </c>
       <c r="L11" t="n">
-        <v>480.4856069971061</v>
+        <v>801.8186003897566</v>
       </c>
       <c r="M11" t="n">
-        <v>908.9519751945379</v>
+        <v>597.4000830948612</v>
       </c>
       <c r="N11" t="n">
-        <v>471.5330485204132</v>
+        <v>908.879972932398</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5855070215266</v>
+        <v>812.5855070215273</v>
       </c>
       <c r="P11" t="n">
-        <v>655.4679981829054</v>
+        <v>655.4679981829061</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2273914633032</v>
+        <v>201.912400803399</v>
       </c>
       <c r="R11" t="n">
-        <v>96.89537964348182</v>
+        <v>31.17895977049963</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.74157285763448</v>
+        <v>71.74157285763468</v>
       </c>
       <c r="K12" t="n">
-        <v>201.5620422422139</v>
+        <v>466.0272792547928</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8154857068966</v>
+        <v>317.8154857068971</v>
       </c>
       <c r="M12" t="n">
-        <v>770.4167579265549</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3157296599253</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O12" t="n">
-        <v>357.4885165506237</v>
+        <v>357.4885165506243</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355343</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.3181666296027</v>
+        <v>243.8416140184527</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22302802339098</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L13" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8049152747014</v>
+        <v>315.8049152747018</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P13" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.3682721692103</v>
+        <v>152.3682721692107</v>
       </c>
       <c r="K14" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841624</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897566</v>
       </c>
       <c r="M14" t="n">
-        <v>908.9519751945379</v>
+        <v>908.9519751945386</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8799729323973</v>
+        <v>908.879972932398</v>
       </c>
       <c r="O14" t="n">
-        <v>812.5855070215266</v>
+        <v>812.5855070215273</v>
       </c>
       <c r="P14" t="n">
-        <v>343.9161060832317</v>
+        <v>343.916106083229</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9124008033985</v>
+        <v>201.912400803399</v>
       </c>
       <c r="R14" t="n">
-        <v>31.17895977049938</v>
+        <v>31.17895977049963</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.74157285763448</v>
+        <v>71.74157285763468</v>
       </c>
       <c r="K15" t="n">
-        <v>371.4734389077964</v>
+        <v>371.4734389077932</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8154857068966</v>
+        <v>317.8154857068971</v>
       </c>
       <c r="M15" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3157296599253</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O15" t="n">
-        <v>357.4885165506237</v>
+        <v>357.4885165506243</v>
       </c>
       <c r="P15" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355343</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.3954543654518</v>
+        <v>338.3954543654521</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.22302802339098</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L16" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8049152747014</v>
+        <v>315.8049152747018</v>
       </c>
       <c r="N16" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P16" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.3682721692105</v>
+        <v>152.3682721692107</v>
       </c>
       <c r="K17" t="n">
-        <v>603.7569836841619</v>
+        <v>292.205091584485</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8186003897561</v>
+        <v>801.8186003897566</v>
       </c>
       <c r="M17" t="n">
-        <v>908.951975194538</v>
+        <v>908.9519751945386</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8799729323974</v>
+        <v>908.879972932398</v>
       </c>
       <c r="O17" t="n">
-        <v>501.033614921853</v>
+        <v>812.5855070215273</v>
       </c>
       <c r="P17" t="n">
-        <v>655.4679981829056</v>
+        <v>655.4679981829061</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9124008033986</v>
+        <v>201.912400803399</v>
       </c>
       <c r="R17" t="n">
-        <v>31.17895977049943</v>
+        <v>31.17895977049963</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74157285763454</v>
+        <v>71.74157285763468</v>
       </c>
       <c r="K18" t="n">
-        <v>371.4734389077959</v>
+        <v>371.4734389077932</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068971</v>
       </c>
       <c r="M18" t="n">
-        <v>390.4280735251234</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O18" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506243</v>
       </c>
       <c r="P18" t="n">
-        <v>267.387701535534</v>
+        <v>267.3877015355343</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.3954543654518</v>
+        <v>338.3954543654521</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.22302802339101</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L19" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8049152747016</v>
+        <v>315.8049152747018</v>
       </c>
       <c r="N19" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6534283077278</v>
+        <v>273.6534283077266</v>
       </c>
       <c r="P19" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.39186174742194</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3682721692105</v>
+        <v>152.3682721692107</v>
       </c>
       <c r="K20" t="n">
-        <v>292.2050915844879</v>
+        <v>292.2050915844841</v>
       </c>
       <c r="L20" t="n">
-        <v>801.8186003897561</v>
+        <v>801.8186003897566</v>
       </c>
       <c r="M20" t="n">
-        <v>908.951975194538</v>
+        <v>908.9519751945386</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8799729323974</v>
+        <v>908.879972932398</v>
       </c>
       <c r="O20" t="n">
-        <v>812.5855070215268</v>
+        <v>812.5855070215273</v>
       </c>
       <c r="P20" t="n">
-        <v>655.4679981829056</v>
+        <v>655.4679981829061</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9124008033986</v>
+        <v>201.912400803399</v>
       </c>
       <c r="R20" t="n">
-        <v>31.17895977049943</v>
+        <v>31.17895977049963</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74157285763454</v>
+        <v>71.74157285763468</v>
       </c>
       <c r="K21" t="n">
-        <v>466.0272792547925</v>
+        <v>371.4734389077932</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068971</v>
       </c>
       <c r="M21" t="n">
-        <v>390.4280735251234</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O21" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506243</v>
       </c>
       <c r="P21" t="n">
-        <v>267.387701535534</v>
+        <v>267.3877015355343</v>
       </c>
       <c r="Q21" t="n">
-        <v>243.841614018455</v>
+        <v>338.3954543654521</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.22302802339101</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L22" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8049152747016</v>
+        <v>315.8049152747018</v>
       </c>
       <c r="N22" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6534283077278</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P22" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.39186174742194</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.3682721692105</v>
+        <v>152.3682721692107</v>
       </c>
       <c r="K23" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841624</v>
       </c>
       <c r="L23" t="n">
-        <v>801.8186003897561</v>
+        <v>801.8186003897566</v>
       </c>
       <c r="M23" t="n">
-        <v>908.951975194538</v>
+        <v>908.9519751945386</v>
       </c>
       <c r="N23" t="n">
-        <v>908.8799729323974</v>
+        <v>908.879972932398</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5855070215268</v>
+        <v>812.5855070215273</v>
       </c>
       <c r="P23" t="n">
-        <v>343.9161060832317</v>
+        <v>343.916106083229</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.9124008033986</v>
+        <v>201.912400803399</v>
       </c>
       <c r="R23" t="n">
-        <v>31.17895977049943</v>
+        <v>31.17895977049963</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.74157285763454</v>
+        <v>71.74157285763468</v>
       </c>
       <c r="K24" t="n">
-        <v>201.5620422422139</v>
+        <v>371.4734389077932</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068971</v>
       </c>
       <c r="M24" t="n">
-        <v>390.4280735251234</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N24" t="n">
-        <v>795.3044140613564</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O24" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506243</v>
       </c>
       <c r="P24" t="n">
-        <v>267.387701535534</v>
+        <v>267.3877015355343</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.3181666296027</v>
+        <v>338.3954543654521</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.22302802339101</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L25" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8049152747016</v>
+        <v>315.8049152747018</v>
       </c>
       <c r="N25" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6534283077278</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P25" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39186174742194</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>323.7860185257257</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887908</v>
